--- a/data.xlsx
+++ b/data.xlsx
@@ -14,9 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
   <si>
     <t>jaykakadiya019@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaydeep</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>jaykakadiya020@gmail.com</t>
+  </si>
+  <si>
+    <t>jaykakadiya021@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -24,12 +45,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,7 +68,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -57,13 +93,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,60 +105,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,16 +128,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +187,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -198,19 +212,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,31 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,115 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,8 +409,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -418,15 +486,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -436,210 +495,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -959,26 +973,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="38.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="jaykakadiya019@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="jaykakadiya019@gmail.com" tooltip="mailto:jaykakadiya019@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="jaykakadiya019@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId1" display="jaykakadiya019@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId1" display="jaykakadiya020@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId1" display="jaykakadiya021@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Mail</t>
   </si>
@@ -28,16 +28,19 @@
     <t>jaykakadiya019@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Jaydeep Anilbhai Kakadiya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc </t>
+  </si>
+  <si>
+    <t>jaykakadiya19@gmail.com</t>
+  </si>
+  <si>
     <t>Jaydeep</t>
   </si>
   <si>
     <t>Core</t>
-  </si>
-  <si>
-    <t>jaykakadiya020@gmail.com</t>
-  </si>
-  <si>
-    <t>jaykakadiya021@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -45,9 +48,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -75,22 +78,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,6 +114,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,10 +152,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,80 +176,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,181 +221,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,22 +412,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -433,7 +436,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -469,44 +492,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,130 +527,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,7 +979,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1009,55 +1012,28 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="jaykakadiya019@gmail.com" tooltip="mailto:jaykakadiya019@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId1" display="jaykakadiya019@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId1" display="jaykakadiya019@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId1" display="jaykakadiya020@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId1" display="jaykakadiya021@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="jaykakadiya19@gmail.com" tooltip="mailto:jaykakadiya19@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
